--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master Thesis Model\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7EAAA5-92AE-4888-AE7A-98D9B95763D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62689A2B-599A-4710-8C17-688A7A16DAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS" sheetId="2" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -134,10 +134,10 @@
     <t>~TFM_INS</t>
   </si>
   <si>
-    <t>UP</t>
-  </si>
-  <si>
     <t>ELCRNWIN02</t>
+  </si>
+  <si>
+    <t>FX</t>
   </si>
 </sst>
 </file>
@@ -786,7 +786,7 @@
   <dimension ref="B2:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C4" sqref="C4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,7 +861,7 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -877,9 +877,8 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C5" t="str">
-        <f>C4</f>
-        <v>UP</v>
+      <c r="C5" t="s">
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -896,7 +895,7 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -908,13 +907,12 @@
         <v>3</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C7" t="str">
-        <f>C6</f>
-        <v>UP</v>
+      <c r="C7" t="s">
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -926,7 +924,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62689A2B-599A-4710-8C17-688A7A16DAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF2613A-0773-4C61-AD83-5932862F69EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS" sheetId="2" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>ELCRNWIN01</t>
-  </si>
-  <si>
-    <t>~TFM_INS</t>
   </si>
   <si>
     <t>ELCRNWIN02</t>
@@ -786,7 +783,7 @@
   <dimension ref="B2:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,9 +803,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -861,7 +856,7 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -878,7 +873,7 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -895,7 +890,7 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -907,12 +902,12 @@
         <v>3</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -924,7 +919,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF2613A-0773-4C61-AD83-5932862F69EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C64F306-7671-47D0-90BA-9944C40F509A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -134,7 +134,10 @@
     <t>ELCRNWIN02</t>
   </si>
   <si>
-    <t>FX</t>
+    <t>~TFM_INS</t>
+  </si>
+  <si>
+    <t>UP</t>
   </si>
 </sst>
 </file>
@@ -325,7 +328,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="64">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -398,10 +401,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -413,8 +420,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="64">
+  <cellStyles count="69">
     <cellStyle name="calculated" xfId="3" xr:uid="{95EEF1BB-B40F-45B9-9743-E0B4B9536F7A}"/>
     <cellStyle name="Calculation 2" xfId="4" xr:uid="{C03E8C2B-0C8C-4ED9-8306-49A2E38342AC}"/>
     <cellStyle name="Comma 10" xfId="5" xr:uid="{3962AC3B-C83B-48EE-99F8-E0D03FE49BCB}"/>
@@ -445,11 +454,16 @@
     <cellStyle name="Normal 16" xfId="2" xr:uid="{E249A73B-AE29-479B-838D-3E96649E8AA8}"/>
     <cellStyle name="Normal 2" xfId="22" xr:uid="{094B25B0-2D13-4304-8E7C-1014DFCD571A}"/>
     <cellStyle name="Normal 2 2" xfId="23" xr:uid="{0D3B827D-9A86-4383-8F25-05FA3D1A5CEF}"/>
+    <cellStyle name="Normal 2 2 2" xfId="66" xr:uid="{578A7CBE-674C-4555-AC1B-A724BA375CC6}"/>
     <cellStyle name="Normal 2 3" xfId="24" xr:uid="{C7CC04FF-A76E-4C0C-8F83-DFCD9B4C44DE}"/>
     <cellStyle name="Normal 2 4" xfId="25" xr:uid="{3C072B6E-49B1-4ACE-9179-40301CE0206C}"/>
     <cellStyle name="Normal 3" xfId="26" xr:uid="{0BFE896F-6B0C-423C-B0CF-0EC0CDEFAB27}"/>
+    <cellStyle name="Normal 3 10" xfId="67" xr:uid="{291ED370-A39F-4445-A041-96CF666953A4}"/>
+    <cellStyle name="Normal 3 2" xfId="64" xr:uid="{5ABEF3C9-9F28-469E-A180-5E316DB1D6B4}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="65" xr:uid="{088EB69D-DA79-41A5-BB9C-3565EAB84CE6}"/>
     <cellStyle name="Normal 39" xfId="27" xr:uid="{1CA7B8BB-598D-4288-BF84-A54AC1F0D8F3}"/>
     <cellStyle name="Normal 4" xfId="28" xr:uid="{66E3D78A-4A6B-4059-9A56-2D60B95E69B4}"/>
+    <cellStyle name="Normal 4 10" xfId="68" xr:uid="{93A38602-74F4-4239-9B10-CC1745112040}"/>
     <cellStyle name="Normal 4 2" xfId="29" xr:uid="{B0049BA5-DAA1-4942-88B1-32CBC1061833}"/>
     <cellStyle name="Normal 5" xfId="54" xr:uid="{5BE5441F-BDD3-4B15-8AB4-FE0331B8CC54}"/>
     <cellStyle name="Normal 6" xfId="55" xr:uid="{0AC4920D-C3FD-4324-A691-7640044CCCF8}"/>
@@ -783,7 +797,7 @@
   <dimension ref="B2:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,60 +817,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="B2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -865,15 +881,15 @@
         <v>2040</v>
       </c>
       <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="H4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>16</v>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -884,13 +900,13 @@
       <c r="F5">
         <v>5</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>16</v>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -899,15 +915,15 @@
         <v>2033</v>
       </c>
       <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="H6" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>16</v>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -918,18 +934,18 @@
       <c r="F7">
         <v>5</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H8" s="8"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H9" s="8"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H10" s="8"/>
+      <c r="H10" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C64F306-7671-47D0-90BA-9944C40F509A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0CFC01-D196-4423-A427-E4CC30CF75D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -407,7 +407,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -420,7 +420,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="69">
@@ -797,7 +796,7 @@
   <dimension ref="B2:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -817,7 +816,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="1"/>
@@ -881,14 +880,14 @@
         <v>2040</v>
       </c>
       <c r="F4">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C5" s="8" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
@@ -905,7 +904,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C6" s="8" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
@@ -915,14 +914,14 @@
         <v>2033</v>
       </c>
       <c r="F6">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C7" s="8" t="s">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0CFC01-D196-4423-A427-E4CC30CF75D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192C853A-9B0F-4D7D-A614-C203CE3C52A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -138,6 +138,27 @@
   </si>
   <si>
     <t>UP</t>
+  </si>
+  <si>
+    <t>ACT_BND</t>
+  </si>
+  <si>
+    <t>EXPELC</t>
+  </si>
+  <si>
+    <t>EXPH2</t>
+  </si>
+  <si>
+    <t>EXPAMM</t>
+  </si>
+  <si>
+    <t>EXPMETH</t>
+  </si>
+  <si>
+    <t>EXPKRE</t>
+  </si>
+  <si>
+    <t>FX</t>
   </si>
 </sst>
 </file>
@@ -278,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -327,6 +348,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -407,7 +437,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -416,11 +446,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="calculated" xfId="3" xr:uid="{95EEF1BB-B40F-45B9-9743-E0B4B9536F7A}"/>
@@ -793,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N10"/>
+  <dimension ref="B2:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,7 +849,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="1"/>
@@ -832,119 +865,204 @@
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="9">
         <v>2040</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="9">
         <v>500</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="9">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="9">
         <v>5</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="9">
         <v>2033</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="9">
         <v>500</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="C7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="9">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="9">
         <v>5</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H8" s="7"/>
+      <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2040</v>
+      </c>
+      <c r="F8" s="9">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H9" s="7"/>
+      <c r="C9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2040</v>
+      </c>
+      <c r="F9" s="9">
+        <v>5</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H10" s="7"/>
+      <c r="C10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2040</v>
+      </c>
+      <c r="F10" s="9">
+        <v>5</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2040</v>
+      </c>
+      <c r="F11" s="9">
+        <v>5</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2040</v>
+      </c>
+      <c r="F12" s="9">
+        <v>5</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192C853A-9B0F-4D7D-A614-C203CE3C52A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42069411-E973-489D-A106-2A373C7A25F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -138,27 +138,6 @@
   </si>
   <si>
     <t>UP</t>
-  </si>
-  <si>
-    <t>ACT_BND</t>
-  </si>
-  <si>
-    <t>EXPELC</t>
-  </si>
-  <si>
-    <t>EXPH2</t>
-  </si>
-  <si>
-    <t>EXPAMM</t>
-  </si>
-  <si>
-    <t>EXPMETH</t>
-  </si>
-  <si>
-    <t>EXPKRE</t>
-  </si>
-  <si>
-    <t>FX</t>
   </si>
 </sst>
 </file>
@@ -437,7 +416,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -451,9 +430,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="calculated" xfId="3" xr:uid="{95EEF1BB-B40F-45B9-9743-E0B4B9536F7A}"/>
@@ -826,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N12"/>
+  <dimension ref="B2:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -903,166 +881,78 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="9" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4">
         <v>2040</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4">
         <v>500</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C5" s="9" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C6" s="9" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6">
         <v>2033</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6">
         <v>500</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="9">
-        <v>2040</v>
-      </c>
-      <c r="F8" s="9">
-        <v>5</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="9">
-        <v>2040</v>
-      </c>
-      <c r="F9" s="9">
-        <v>5</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="9">
-        <v>2040</v>
-      </c>
-      <c r="F10" s="9">
-        <v>5</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="9">
-        <v>2040</v>
-      </c>
-      <c r="F11" s="9">
-        <v>5</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="9">
-        <v>2040</v>
-      </c>
-      <c r="F12" s="9">
-        <v>5</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="H10" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42069411-E973-489D-A106-2A373C7A25F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22B5EB1-9151-429D-A483-934766C26C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -138,6 +138,30 @@
   </si>
   <si>
     <t>UP</t>
+  </si>
+  <si>
+    <t>EXPELC</t>
+  </si>
+  <si>
+    <t>EXPH2</t>
+  </si>
+  <si>
+    <t>EXPAMM</t>
+  </si>
+  <si>
+    <t>EXPMETH</t>
+  </si>
+  <si>
+    <t>EXPKRE</t>
+  </si>
+  <si>
+    <t>ACT_BND</t>
+  </si>
+  <si>
+    <t>EXPH3</t>
+  </si>
+  <si>
+    <t>FX</t>
   </si>
 </sst>
 </file>
@@ -416,7 +440,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -431,7 +455,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="calculated" xfId="3" xr:uid="{95EEF1BB-B40F-45B9-9743-E0B4B9536F7A}"/>
@@ -804,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N10"/>
+  <dimension ref="B2:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:H12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -941,18 +967,266 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="10">
         <v>5</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="11" t="s">
         <v>15</v>
       </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>2040</v>
+      </c>
+      <c r="F8" s="10">
+        <v>5</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H9" s="10"/>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>3</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H10" s="10"/>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>2040</v>
+      </c>
+      <c r="F10" s="10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>3</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2040</v>
+      </c>
+      <c r="F12" s="10">
+        <v>3</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>3</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>2040</v>
+      </c>
+      <c r="F14" s="10">
+        <v>2</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>3</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2040</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>3</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22B5EB1-9151-429D-A483-934766C26C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2C3745-21E6-4A7C-B5E6-CAB3D9D0CC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -440,7 +440,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -455,9 +455,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="calculated" xfId="3" xr:uid="{95EEF1BB-B40F-45B9-9743-E0B4B9536F7A}"/>
@@ -830,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N22"/>
+  <dimension ref="B2:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,16 +965,12 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
@@ -988,16 +982,12 @@
       <c r="E8">
         <v>2040</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10" t="s">
+      <c r="H8" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
@@ -1009,16 +999,12 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="10">
-        <v>3</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
@@ -1030,16 +1016,12 @@
       <c r="E10">
         <v>2040</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
@@ -1051,16 +1033,12 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="10">
-        <v>3</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="12" t="s">
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
@@ -1072,16 +1050,12 @@
       <c r="E12">
         <v>2040</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12">
         <v>3</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
@@ -1093,16 +1067,12 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="10">
-        <v>3</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="12" t="s">
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
@@ -1114,16 +1084,12 @@
       <c r="E14">
         <v>2040</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14">
         <v>2</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10" t="s">
+      <c r="H14" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
@@ -1135,16 +1101,12 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" s="10">
-        <v>3</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10" t="s">
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
@@ -1156,18 +1118,14 @@
       <c r="E16">
         <v>2040</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10" t="s">
+      <c r="H16" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -1177,56 +1135,12 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="10">
-        <v>3</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10" t="s">
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2C3745-21E6-4A7C-B5E6-CAB3D9D0CC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CE5ABA-6479-402D-9D11-0721A208B7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -828,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N17"/>
+  <dimension ref="B2:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -850,7 +850,7 @@
     <col min="13" max="14" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
@@ -863,7 +863,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -904,7 +904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>17</v>
       </c>
@@ -915,13 +915,13 @@
         <v>2040</v>
       </c>
       <c r="F4">
-        <v>500</v>
+        <v>7</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>17</v>
       </c>
@@ -938,7 +938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -949,13 +949,13 @@
         <v>2033</v>
       </c>
       <c r="F6">
-        <v>500</v>
+        <v>3</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>17</v>
       </c>
@@ -972,173 +972,173 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="R12" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
+      <c r="S12" t="s">
         <v>23</v>
       </c>
-      <c r="E8">
+      <c r="T12">
         <v>2040</v>
       </c>
-      <c r="F8">
+      <c r="U12">
         <v>5</v>
       </c>
-      <c r="H8" t="s">
+      <c r="W12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="R13" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
+      <c r="S13" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
+      <c r="T13">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="U13">
         <v>5</v>
       </c>
-      <c r="H9" t="s">
+      <c r="W13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="R14" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
+      <c r="S14" t="s">
         <v>23</v>
       </c>
-      <c r="E10">
+      <c r="T14">
         <v>2040</v>
       </c>
-      <c r="F10">
+      <c r="U14">
         <v>3</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="W14" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="R15" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+      <c r="S15" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
+      <c r="T15">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="U15">
         <v>5</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="W15" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="R16" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
+      <c r="S16" t="s">
         <v>23</v>
       </c>
-      <c r="E12">
+      <c r="T16">
         <v>2040</v>
       </c>
-      <c r="F12">
+      <c r="U16">
         <v>3</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="W16" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    <row r="17" spans="18:23" x14ac:dyDescent="0.3">
+      <c r="R17" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="S17" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
+      <c r="T17">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="U17">
         <v>5</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="W17" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+    <row r="18" spans="18:23" x14ac:dyDescent="0.3">
+      <c r="R18" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
+      <c r="S18" t="s">
         <v>23</v>
       </c>
-      <c r="E14">
+      <c r="T18">
         <v>2040</v>
       </c>
-      <c r="F14">
+      <c r="U18">
         <v>2</v>
       </c>
-      <c r="H14" t="s">
+      <c r="W18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
+    <row r="19" spans="18:23" x14ac:dyDescent="0.3">
+      <c r="R19" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
+      <c r="S19" t="s">
         <v>23</v>
       </c>
-      <c r="E15">
+      <c r="T19">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="U19">
         <v>5</v>
       </c>
-      <c r="H15" t="s">
+      <c r="W19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+    <row r="20" spans="18:23" x14ac:dyDescent="0.3">
+      <c r="R20" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
+      <c r="S20" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
+      <c r="T20">
         <v>2040</v>
       </c>
-      <c r="F16">
+      <c r="U20">
         <v>1</v>
       </c>
-      <c r="H16" t="s">
+      <c r="W20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+    <row r="21" spans="18:23" x14ac:dyDescent="0.3">
+      <c r="R21" t="s">
         <v>25</v>
       </c>
-      <c r="D17" t="s">
+      <c r="S21" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
+      <c r="T21">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="U21">
         <v>5</v>
       </c>
-      <c r="H17" t="s">
+      <c r="W21" t="s">
         <v>22</v>
       </c>
     </row>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CE5ABA-6479-402D-9D11-0721A208B7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614B4FAE-DD67-43FC-860F-A0ED17BC557C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -236,6 +236,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614B4FAE-DD67-43FC-860F-A0ED17BC557C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B4F11B-1F7D-47B6-BA2A-AF110FC91C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>FX</t>
+  </si>
+  <si>
+    <t>TRANS_LINE</t>
   </si>
 </sst>
 </file>
@@ -832,7 +835,7 @@
   <dimension ref="B2:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -973,6 +976,23 @@
         <v>15</v>
       </c>
     </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>2050</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="R12" t="s">
         <v>25</v>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B4F11B-1F7D-47B6-BA2A-AF110FC91C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7067CD85-C4EF-4068-B37A-2BE567935CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -835,7 +835,7 @@
   <dimension ref="B2:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D21" sqref="D21:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,23 +976,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>2050</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="R12" t="s">
         <v>25</v>
@@ -1078,7 +1061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="18:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:23" x14ac:dyDescent="0.3">
       <c r="R17" t="s">
         <v>25</v>
       </c>
@@ -1095,7 +1078,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="18:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:23" x14ac:dyDescent="0.3">
       <c r="R18" t="s">
         <v>25</v>
       </c>
@@ -1112,7 +1095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="18:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:23" x14ac:dyDescent="0.3">
       <c r="R19" t="s">
         <v>25</v>
       </c>
@@ -1129,7 +1112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="18:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:23" x14ac:dyDescent="0.3">
       <c r="R20" t="s">
         <v>25</v>
       </c>
@@ -1146,7 +1129,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="18:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <v>2050</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
       <c r="R21" t="s">
         <v>25</v>
       </c>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7067CD85-C4EF-4068-B37A-2BE567935CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC6ABF3-3DAB-44BE-A681-826351102CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -835,7 +835,7 @@
   <dimension ref="B2:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:I21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,6 +976,23 @@
         <v>15</v>
       </c>
     </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>2050</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="R12" t="s">
         <v>25</v>
@@ -1061,7 +1078,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R17" t="s">
         <v>25</v>
       </c>
@@ -1078,7 +1095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R18" t="s">
         <v>25</v>
       </c>
@@ -1095,7 +1112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R19" t="s">
         <v>25</v>
       </c>
@@ -1112,7 +1129,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R20" t="s">
         <v>25</v>
       </c>
@@ -1129,22 +1146,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21">
-        <v>2050</v>
-      </c>
-      <c r="G21">
-        <v>4</v>
-      </c>
-      <c r="I21" t="s">
-        <v>26</v>
-      </c>
+    <row r="21" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R21" t="s">
         <v>25</v>
       </c>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC6ABF3-3DAB-44BE-A681-826351102CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87EC0C7-E310-459E-87EB-B6EC086C163C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -164,7 +164,19 @@
     <t>FX</t>
   </si>
   <si>
-    <t>TRANS_LINE</t>
+    <t>TRANS_LINE_DE</t>
+  </si>
+  <si>
+    <t>TRANS_LINE_DKW</t>
+  </si>
+  <si>
+    <t>TRANS_LINE_NL</t>
+  </si>
+  <si>
+    <t>TRANS_LINE_UK</t>
+  </si>
+  <si>
+    <t>TRANS_LINE_NO</t>
   </si>
 </sst>
 </file>
@@ -835,7 +847,7 @@
   <dimension ref="B2:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,13 +999,79 @@
         <v>2050</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>2050</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>2050</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>2050</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>2050</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
       <c r="R12" t="s">
         <v>25</v>
       </c>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87EC0C7-E310-459E-87EB-B6EC086C163C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D39A7A1-40D7-4471-8E68-040044672227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D39A7A1-40D7-4471-8E68-040044672227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B26A63F-78AC-4CD9-A332-5F532784B4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>TRANS_LINE_NO</t>
+  </si>
+  <si>
+    <t>TRANS_LINE_BEL</t>
   </si>
 </sst>
 </file>
@@ -847,7 +850,7 @@
   <dimension ref="B2:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1089,6 +1092,21 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>2050</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
       <c r="R13" t="s">
         <v>25</v>
       </c>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B26A63F-78AC-4CD9-A332-5F532784B4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF400103-DE05-4D29-B6E6-EC16F3890274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -180,6 +180,24 @@
   </si>
   <si>
     <t>TRANS_LINE_BEL</t>
+  </si>
+  <si>
+    <t>h2_pipe_DKW</t>
+  </si>
+  <si>
+    <t>h2_pipe_DE</t>
+  </si>
+  <si>
+    <t>h2_pipe_NL</t>
+  </si>
+  <si>
+    <t>h2_pipe_UK</t>
+  </si>
+  <si>
+    <t>h2_pipe_NO</t>
+  </si>
+  <si>
+    <t>h2_pipe_BEL</t>
   </si>
 </sst>
 </file>
@@ -850,7 +868,7 @@
   <dimension ref="B2:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1124,6 +1142,21 @@
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>2050</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
       <c r="R14" t="s">
         <v>25</v>
       </c>
@@ -1141,6 +1174,21 @@
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>2050</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
       <c r="R15" t="s">
         <v>25</v>
       </c>
@@ -1158,6 +1206,21 @@
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>2050</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
       <c r="R16" t="s">
         <v>25</v>
       </c>
@@ -1174,7 +1237,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="18:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>2050</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
       <c r="R17" t="s">
         <v>25</v>
       </c>
@@ -1191,7 +1269,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="18:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>2050</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
       <c r="R18" t="s">
         <v>25</v>
       </c>
@@ -1208,7 +1301,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="18:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>2050</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
       <c r="R19" t="s">
         <v>25</v>
       </c>
@@ -1225,7 +1333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="18:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:23" x14ac:dyDescent="0.3">
       <c r="R20" t="s">
         <v>25</v>
       </c>
@@ -1242,7 +1350,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="18:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.3">
       <c r="R21" t="s">
         <v>25</v>
       </c>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF400103-DE05-4D29-B6E6-EC16F3890274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CB2F31-9631-4EF9-8EDD-0F1EAC3C7CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="39">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>h2_pipe_BEL</t>
+  </si>
+  <si>
+    <t>DELH2GC</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -476,8 +479,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -493,8 +497,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="69"/>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="70">
     <cellStyle name="calculated" xfId="3" xr:uid="{95EEF1BB-B40F-45B9-9743-E0B4B9536F7A}"/>
     <cellStyle name="Calculation 2" xfId="4" xr:uid="{C03E8C2B-0C8C-4ED9-8306-49A2E38342AC}"/>
     <cellStyle name="Comma 10" xfId="5" xr:uid="{3962AC3B-C83B-48EE-99F8-E0D03FE49BCB}"/>
@@ -536,6 +541,7 @@
     <cellStyle name="Normal 4" xfId="28" xr:uid="{66E3D78A-4A6B-4059-9A56-2D60B95E69B4}"/>
     <cellStyle name="Normal 4 10" xfId="68" xr:uid="{93A38602-74F4-4239-9B10-CC1745112040}"/>
     <cellStyle name="Normal 4 2" xfId="29" xr:uid="{B0049BA5-DAA1-4942-88B1-32CBC1061833}"/>
+    <cellStyle name="Normal 42" xfId="69" xr:uid="{81A6172F-90E9-4F60-869C-F6B35F0C04DB}"/>
     <cellStyle name="Normal 5" xfId="54" xr:uid="{5BE5441F-BDD3-4B15-8AB4-FE0331B8CC54}"/>
     <cellStyle name="Normal 6" xfId="55" xr:uid="{0AC4920D-C3FD-4324-A691-7640044CCCF8}"/>
     <cellStyle name="Normal 7" xfId="57" xr:uid="{BF493092-3806-442B-B9F5-58619BE792F6}"/>
@@ -868,7 +874,7 @@
   <dimension ref="B2:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1334,6 +1340,21 @@
       </c>
     </row>
     <row r="20" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20">
+        <v>2050</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>37</v>
+      </c>
       <c r="R20" t="s">
         <v>25</v>
       </c>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CB2F31-9631-4EF9-8EDD-0F1EAC3C7CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0525FDBA-E63E-4817-83DB-1F5B3D37508A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -874,7 +874,7 @@
   <dimension ref="B2:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1343,8 +1343,8 @@
       <c r="C20" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>38</v>
+      <c r="D20" t="s">
+        <v>13</v>
       </c>
       <c r="E20">
         <v>2050</v>
@@ -1352,8 +1352,8 @@
       <c r="F20">
         <v>3</v>
       </c>
-      <c r="H20" t="s">
-        <v>37</v>
+      <c r="H20" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="R20" t="s">
         <v>25</v>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0525FDBA-E63E-4817-83DB-1F5B3D37508A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FB5440-E842-4B5B-9426-3B240128C059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>DELH2GC</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>SUPKRECO2C1</t>
   </si>
 </sst>
 </file>
@@ -212,7 +218,7 @@
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +321,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -481,7 +492,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -498,6 +509,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="69"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="70">
     <cellStyle name="calculated" xfId="3" xr:uid="{95EEF1BB-B40F-45B9-9743-E0B4B9536F7A}"/>
@@ -874,7 +886,7 @@
   <dimension ref="B2:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1372,6 +1384,21 @@
       </c>
     </row>
     <row r="21" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>2050</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="R21" t="s">
         <v>25</v>
       </c>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FB5440-E842-4B5B-9426-3B240128C059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5A0FAF-237B-4A38-930D-59001F01270A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -886,7 +886,7 @@
   <dimension ref="B2:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1388,7 +1388,7 @@
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>2050</v>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5A0FAF-237B-4A38-930D-59001F01270A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AF5F9A-979F-4A6A-812A-87A1D6868B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -886,7 +886,7 @@
   <dimension ref="B2:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1388,7 +1388,7 @@
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>2050</v>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AF5F9A-979F-4A6A-812A-87A1D6868B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B110EC-9054-464D-86D3-AC06CD4BE371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -886,7 +886,7 @@
   <dimension ref="B2:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1388,7 +1388,7 @@
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>2050</v>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B110EC-9054-464D-86D3-AC06CD4BE371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF916E97-9A3C-4897-ABDB-598134D82595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="42">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>SUPKRECO2C1</t>
+  </si>
+  <si>
+    <t>Island_Construction</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -510,6 +513,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="69"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="70">
     <cellStyle name="calculated" xfId="3" xr:uid="{95EEF1BB-B40F-45B9-9743-E0B4B9536F7A}"/>
@@ -883,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:W21"/>
+  <dimension ref="B2:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1385,19 +1389,19 @@
     </row>
     <row r="21" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E21">
-        <v>2050</v>
+        <v>2035</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>40</v>
+        <v>600000</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="R21" t="s">
         <v>25</v>
@@ -1413,6 +1417,40 @@
       </c>
       <c r="W21" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27">
+        <v>2050</v>
+      </c>
+      <c r="I27">
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF916E97-9A3C-4897-ABDB-598134D82595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF3816E-C658-4E71-BA0A-9FFB4A2CC999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,7 +890,7 @@
   <dimension ref="B2:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:K27"/>
+      <selection activeCell="D21" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1392,7 +1392,7 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>2035</v>
@@ -1424,7 +1424,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>0</v>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF3816E-C658-4E71-BA0A-9FFB4A2CC999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0488AF8D-83E6-45B3-9004-2047F1463517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -887,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:W27"/>
+  <dimension ref="B2:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1366,7 +1366,7 @@
         <v>2050</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>38</v>
@@ -1388,21 +1388,6 @@
       </c>
     </row>
     <row r="21" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>2035</v>
-      </c>
-      <c r="F21">
-        <v>600000</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="R21" t="s">
         <v>25</v>
       </c>
@@ -1417,23 +1402,6 @@
       </c>
       <c r="W21" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="27" spans="3:23" x14ac:dyDescent="0.3">
@@ -1451,6 +1419,40 @@
       </c>
       <c r="K27" s="12" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32">
+        <v>2035</v>
+      </c>
+      <c r="F32">
+        <v>600000</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0488AF8D-83E6-45B3-9004-2047F1463517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A31621-31CA-4D11-BD10-7C2811D0DC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1366,7 +1366,7 @@
         <v>2050</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>38</v>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A31621-31CA-4D11-BD10-7C2811D0DC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405A0D8A-8F44-4628-BA4E-56F1CFD0D742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -889,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1363,10 +1363,10 @@
         <v>13</v>
       </c>
       <c r="E20">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>38</v>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405A0D8A-8F44-4628-BA4E-56F1CFD0D742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B592DBBE-B302-4AFA-9BE6-444E5061B075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="42">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1388,6 +1388,21 @@
       </c>
     </row>
     <row r="21" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="R21" t="s">
         <v>25</v>
       </c>

--- a/SuppXLS/Scen_limit_capacities.xlsx
+++ b/SuppXLS/Scen_limit_capacities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B592DBBE-B302-4AFA-9BE6-444E5061B075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107E02F3-2AFA-4002-9FA8-0B596FE3B92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,7 +890,7 @@
   <dimension ref="B2:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:H21"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1059,7 +1059,7 @@
         <v>2050</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
@@ -1093,7 +1093,7 @@
         <v>2050</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
         <v>29</v>
@@ -1356,21 +1356,6 @@
       </c>
     </row>
     <row r="20" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20">
-        <v>2030</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="R20" t="s">
         <v>25</v>
       </c>
@@ -1388,21 +1373,6 @@
       </c>
     </row>
     <row r="21" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="R21" t="s">
         <v>25</v>
       </c>
@@ -1417,6 +1387,40 @@
       </c>
       <c r="W21" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>2030</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="3:23" x14ac:dyDescent="0.3">
